--- a/public/template/template-data-barang.xlsx
+++ b/public/template/template-data-barang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irfnmaulaa/Sites/palembang-store-app/public/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306D1FCE-00CC-A54E-982C-1F466AF3F2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDA09A3-9398-2548-BCEF-1F3C1FDF326E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="3800" windowWidth="26440" windowHeight="15440" xr2:uid="{EC77CD78-8D48-E947-B18A-9065ACCB1AC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>KATEGORI</t>
   </si>
@@ -47,43 +47,10 @@
     <t>VARIAN</t>
   </si>
   <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>01. DJABES</t>
-  </si>
-  <si>
-    <t>TEST BARANG 1</t>
-  </si>
-  <si>
-    <t>TEST VARIANT 1</t>
-  </si>
-  <si>
-    <t>TESTCODE1</t>
-  </si>
-  <si>
     <t>KODE BARANG</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>KATEGORI BARU</t>
-  </si>
-  <si>
-    <t>TEST BARANG 2</t>
-  </si>
-  <si>
-    <t>TEST VARIANT 2</t>
-  </si>
-  <si>
-    <t>TESTCODE2</t>
-  </si>
-  <si>
-    <t>PCS</t>
-  </si>
-  <si>
-    <t>STOCK</t>
+    <t>SATUAN</t>
   </si>
 </sst>
 </file>
@@ -444,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C477B0A-69BC-A047-B738-3F32B9D9A129}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,54 +437,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
